--- a/Delay Model/OutPut/3rd/main_30_4.xlsx
+++ b/Delay Model/OutPut/3rd/main_30_4.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,7 +334,7 @@
   <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -348,10 +344,10 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>1030.8068127331842</v>
+        <v>1014.38023562374</v>
       </c>
       <c r="C1">
-        <v>11.610091984225621</v>
+        <v>9.8443438331496207</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -363,7 +359,7 @@
         <v>420.88586320129326</v>
       </c>
       <c r="G1">
-        <v>11.633963455797824</v>
+        <v>9.8418471971860697</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -393,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>11.320929594443806</v>
+        <v>9.8584060415702996</v>
       </c>
       <c r="R1">
         <v>0</v>
@@ -402,10 +398,10 @@
         <v>0</v>
       </c>
       <c r="T1">
-        <v>0.21051519169170038</v>
+        <v>0.19700172088752901</v>
       </c>
       <c r="U1">
-        <v>11.482808710358334</v>
+        <v>9.9381617420716495</v>
       </c>
       <c r="V1">
         <v>0</v>
@@ -435,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="AE1">
-        <v>11.40305300985715</v>
+        <v>9.8584060415702996</v>
       </c>
       <c r="AF1">
         <v>0</v>
@@ -444,10 +440,10 @@
         <v>0</v>
       </c>
       <c r="AH1">
-        <v>9.4366598031329953</v>
+        <v>8.18457624922371</v>
       </c>
       <c r="AI1">
-        <v>11.482808710358334</v>
+        <v>9.9381617420716495</v>
       </c>
       <c r="AJ1">
         <v>0</v>
@@ -456,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="AL1">
-        <v>6.5013183859196984</v>
+        <v>5.3002636771839402</v>
       </c>
       <c r="AM1">
         <v>0</v>
@@ -468,7 +464,7 @@
         <v>8.8373705976331074</v>
       </c>
       <c r="AP1">
-        <v>6.5013183859197889</v>
+        <v>5.3002636771839402</v>
       </c>
       <c r="AQ1">
         <v>0</v>
@@ -479,10 +475,10 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>2061.6136254663684</v>
+        <v>2028.76</v>
       </c>
       <c r="C2">
-        <v>23.306888923970405</v>
+        <v>19.762205894692976</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -494,7 +490,7 @@
         <v>14347.754780638201</v>
       </c>
       <c r="G2">
-        <v>23.33803678478963</v>
+        <v>19.743004418991941</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -524,22 +520,22 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>56.164013773106461</v>
+        <v>23.8440548036751</v>
       </c>
       <c r="R2">
-        <v>33.033721678497898</v>
+        <v>3.5971410228619098</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.33133840486842087</v>
+        <v>0.322335745314967</v>
       </c>
       <c r="U2">
-        <v>56.379235839962597</v>
+        <v>23.839561083151398</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -566,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>30.290546378039807</v>
+        <v>20.3216216338122</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -575,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>41.586874005432882</v>
+        <v>22.748767013319899</v>
       </c>
       <c r="AI2">
-        <v>30.283901021604638</v>
+        <v>20.329103308037499</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -587,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>12.147499786197514</v>
+        <v>9.9033685267321747</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -599,7 +595,7 @@
         <v>14401.209962895831</v>
       </c>
       <c r="AP2">
-        <v>12.14749978619742</v>
+        <v>9.9033685267321747</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -610,10 +606,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>3092.4204381995523</v>
+        <v>3043.14</v>
       </c>
       <c r="C3">
-        <v>34.338410134882388</v>
+        <v>29.115972251621969</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -625,7 +621,7 @@
         <v>14401.482069347501</v>
       </c>
       <c r="G3">
-        <v>34.381989785775879</v>
+        <v>29.085727412886488</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -655,22 +651,22 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>87.305235631534885</v>
+        <v>44.481573839427902</v>
       </c>
       <c r="R3">
-        <v>52.895382286309186</v>
+        <v>14.400043945629999</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>0.34656683728052362</v>
+        <v>0.29507097673404298</v>
       </c>
       <c r="U3">
-        <v>87.610108504952549</v>
+        <v>44.303823883042099</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -697,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>48.045575769917619</v>
+        <v>36.298838111504097</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -706,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>53.590040027622692</v>
+        <v>35.456943046366</v>
       </c>
       <c r="AI3">
-        <v>48.032850601891191</v>
+        <v>36.170866732494197</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -718,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>15.219152418468077</v>
+        <v>12.407563508323898</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -730,7 +726,7 @@
         <v>14401.147309315706</v>
       </c>
       <c r="AP3">
-        <v>15.219152418467756</v>
+        <v>12.407563508323898</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -741,10 +737,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>4123.2272509327368</v>
+        <v>4057.52</v>
       </c>
       <c r="C4">
-        <v>49.444886594813646</v>
+        <v>41.924944702572205</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -756,7 +752,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G4">
-        <v>49.449597484429084</v>
+        <v>41.832294235166387</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -786,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>112.91841465879722</v>
+        <v>62.516100007510701</v>
       </c>
       <c r="R4">
-        <v>66.147394971694524</v>
+        <v>21.604941364373701</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T4">
-        <v>0.64979859768999693</v>
+        <v>0.54955808429978503</v>
       </c>
       <c r="U4">
-        <v>114.16132792202359</v>
+        <v>62.475549684763401</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -828,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>64.282913506395403</v>
+        <v>48.553249208808502</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -837,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>70.050015565419798</v>
+        <v>35.476287623673997</v>
       </c>
       <c r="AI4">
-        <v>64.299594045787501</v>
+        <v>48.4655525513923</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -849,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>20.681192778312155</v>
+        <v>16.860545565823742</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -861,7 +857,7 @@
         <v>14401.377711899091</v>
       </c>
       <c r="AP4">
-        <v>20.681192778312539</v>
+        <v>16.860545565823742</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -872,10 +868,10 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>5154.0340636659212</v>
+        <v>5071.8999999999996</v>
       </c>
       <c r="C5">
-        <v>62.288166680273626</v>
+        <v>52.814924323620332</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -887,7 +883,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G5">
-        <v>62.242600698812552</v>
+        <v>52.654640661424608</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -917,22 +913,22 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>152.06399661671105</v>
+        <v>84.235267111039803</v>
       </c>
       <c r="R5">
-        <v>92.656879106684045</v>
+        <v>32.428611939589302</v>
       </c>
       <c r="S5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T5">
-        <v>0.48037137353372955</v>
+        <v>0.50446656437209703</v>
       </c>
       <c r="U5">
-        <v>155.63293989039829</v>
+        <v>84.076017589274201</v>
       </c>
       <c r="V5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -959,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>92.574737645850973</v>
+        <v>63.214879555727698</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -968,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>50.601884363943221</v>
+        <v>79.513050458824296</v>
       </c>
       <c r="AI5">
-        <v>92.584253722385597</v>
+        <v>63.0463327910334</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -980,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>24.923966490079255</v>
+        <v>20.319508511507696</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -992,7 +988,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP5">
-        <v>24.923394210603647</v>
+        <v>20.319508511507696</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1003,10 +999,10 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>6184.8408763991047</v>
+        <v>6086.28</v>
       </c>
       <c r="C6">
-        <v>78.359282190508296</v>
+        <v>66.441826425685477</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1018,7 +1014,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G6">
-        <v>77.52951757761366</v>
+        <v>65.586733890776046</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1048,22 +1044,22 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>217.16709833189901</v>
+        <v>101.577891914391</v>
       </c>
       <c r="R6">
-        <v>145.6720176322363</v>
+        <v>39.649695238677303</v>
       </c>
       <c r="S6">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="T6">
-        <v>0.90609666678781886</v>
+        <v>0.79661290144165797</v>
       </c>
       <c r="U6">
-        <v>223.95437989110388</v>
+        <v>101.51578143586499</v>
       </c>
       <c r="V6">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1090,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>107.22916103525944</v>
+        <v>74.829097008049203</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1099,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>155.62842458988675</v>
+        <v>108.890661222194</v>
       </c>
       <c r="AI6">
-        <v>106.99420722410471</v>
+        <v>74.813136737609895</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1111,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>29.022875724300228</v>
+        <v>23.661184528677854</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1123,7 +1119,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP6">
-        <v>29.02218482651859</v>
+        <v>23.661184528677854</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -1134,10 +1130,10 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <v>7215.6476891322891</v>
+        <v>7100.66</v>
       </c>
       <c r="C7">
-        <v>90.518730630274703</v>
+        <v>76.751976545525295</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1149,7 +1145,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G7">
-        <v>88.670626387976526</v>
+        <v>75.011646641741478</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1179,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>255.30550840965117</v>
+        <v>125.92730933983199</v>
       </c>
       <c r="R7">
-        <v>172.31926299794907</v>
+        <v>54.117372179038398</v>
       </c>
       <c r="S7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="T7">
-        <v>0.6015663395031392</v>
+        <v>0.60009394560478402</v>
       </c>
       <c r="U7">
-        <v>268.6827751987264</v>
+        <v>125.510468124703</v>
       </c>
       <c r="V7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1221,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>139.64800592780978</v>
+        <v>83.219744779148201</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1230,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>100.72417325497422</v>
+        <v>85.0579397073069</v>
       </c>
       <c r="AI7">
-        <v>139.44609293518803</v>
+        <v>83.085036094464201</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1242,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>33.341919853208267</v>
+        <v>27.182327681147452</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -1254,7 +1250,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP7">
-        <v>33.341670299544944</v>
+        <v>27.182327681147452</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -1265,10 +1261,10 @@
         <v>80</v>
       </c>
       <c r="B8">
-        <v>8246.4545018654735</v>
+        <v>8115.04</v>
       </c>
       <c r="C8">
-        <v>106.71900243095779</v>
+        <v>90.488391899777923</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1280,7 +1276,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G8">
-        <v>105.67266658757552</v>
+        <v>89.394662569256539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1310,22 +1306,22 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>308.42057548365909</v>
+        <v>144.59864419796901</v>
       </c>
       <c r="R8">
-        <v>212.17933073059058</v>
+        <v>61.3652445723501</v>
       </c>
       <c r="S8">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="T8">
-        <v>0.83425237787466444</v>
+        <v>0.68014484531765296</v>
       </c>
       <c r="U8">
-        <v>330.97334497636058</v>
+        <v>144.37639901947099</v>
       </c>
       <c r="V8">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1352,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>158.13069763064902</v>
+        <v>90.607213425234789</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1361,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>149.64184285088959</v>
+        <v>91.801755810958397</v>
       </c>
       <c r="AI8">
-        <v>158.11813206512065</v>
+        <v>90.722340009400796</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1373,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>42.782384635737827</v>
+        <v>34.878759329679497</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1385,7 +1381,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP8">
-        <v>42.781740235582689</v>
+        <v>34.878759329679497</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -1396,10 +1392,10 @@
         <v>90</v>
       </c>
       <c r="B9">
-        <v>9277.2613145986579</v>
+        <v>9129.42</v>
       </c>
       <c r="C9">
-        <v>115.30387635914404</v>
+        <v>97.767615081483342</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1411,7 +1407,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G9">
-        <v>113.26548352404919</v>
+        <v>95.817868587472077</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1441,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>354.14735640706152</v>
+        <v>181.920901003202</v>
       </c>
       <c r="R9">
-        <v>238.9378020658271</v>
+        <v>75.869776419360207</v>
       </c>
       <c r="S9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T9">
-        <v>0.86604217991728993</v>
+        <v>0.84824110756258198</v>
       </c>
       <c r="U9">
-        <v>433.86722527901549</v>
+        <v>181.248012778175</v>
       </c>
       <c r="V9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1483,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>193.74177237353044</v>
+        <v>129.67412142128936</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1492,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>166.16427088255139</v>
+        <v>190.73703013370499</v>
       </c>
       <c r="AI9">
-        <v>193.66203570399907</v>
+        <v>129.41786725040535</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1504,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>51.55801778768857</v>
+        <v>42.033180460678423</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1516,7 +1512,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP9">
-        <v>51.557286290819604</v>
+        <v>42.033180460678423</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -1527,10 +1523,10 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>10308.0681273318</v>
+        <v>10143.799999999999</v>
       </c>
       <c r="C10">
-        <v>129.14182065652199</v>
+        <v>109.5009830679254</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1542,7 +1538,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G10">
-        <v>128.01058372119942</v>
+        <v>108.29160753283814</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1572,22 +1568,22 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>439.41739184044934</v>
+        <v>460.67677276646799</v>
       </c>
       <c r="R10">
-        <v>265.7038766870084</v>
+        <v>90.378294656707695</v>
       </c>
       <c r="S10">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="T10">
-        <v>0.76710141858653347</v>
+        <v>0.70165356906384702</v>
       </c>
       <c r="U10">
-        <v>1741.5786756043483</v>
+        <v>460.48804689691099</v>
       </c>
       <c r="V10">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1614,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>216.55925456931718</v>
+        <v>180.765961489662</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1623,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>236.51023959684773</v>
+        <v>210.01795238087701</v>
       </c>
       <c r="AI10">
-        <v>216.99696962142534</v>
+        <v>180.89311609569799</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1635,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>60.036967117524334</v>
+        <v>48.945727191344986</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -1647,7 +1643,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP10">
-        <v>60.036168398335462</v>
+        <v>48.945727191344986</v>
       </c>
       <c r="AQ10">
         <v>0</v>

--- a/Delay Model/OutPut/3rd/main_30_4.xlsx
+++ b/Delay Model/OutPut/3rd/main_30_4.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F870C60A-42CA-4EBF-8CAA-95801FE36E8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +54,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,11 +331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,7 +1230,7 @@
         <v>85.0579397073069</v>
       </c>
       <c r="AI7">
-        <v>83.085036094464201</v>
+        <v>93.085036094464201</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1360,7 +1361,7 @@
         <v>91.801755810958397</v>
       </c>
       <c r="AI8">
-        <v>90.722340009400796</v>
+        <v>100.7223400094</v>
       </c>
       <c r="AJ8">
         <v>0</v>
